--- a/file/temp/R.SIGE_RetosOportunidades.xlsx
+++ b/file/temp/R.SIGE_RetosOportunidades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\file\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472F9DBE-5364-40F7-B57F-962224EF24F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77616F0-2E69-4D9F-A951-55889BE2C869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{BD60A6CF-5FAF-4E61-844B-3C3B2CF454A5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>https://github.com/rcfdtools/R.SIGE/blob/main/activity/POTBasic/Readme.md#9-relaci%C3%B3n-entre-el-plan-de-desarrollo-municipal---pdm-y-el-plan-de-ordenamiento-territorial---pot</t>
   </si>
@@ -53,43 +53,7 @@
     <t>https://github.com/rcfdtools/R.SIGE/blob/main/activity/Population/Readme.md</t>
   </si>
   <si>
-    <t>Información catastral actualizada.
-Estructura ecológica a partir de alineamientos y zonas correctamente delimitadas.
-Catastros de redes de servicios públicos con delimitación actualizada del perímetro de servicios públicos.</t>
-  </si>
-  <si>
-    <t>Actualización y despliegue permanente del sistema de indicadores territoriales, evaluando la gestión y actuaciones realizadas sobre el territorio.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rendición de cuentas con soportes documentados (reportes técnicos, cartografía dinámica).
-Fomentar la participación comunitaria.
-</t>
-  </si>
-  <si>
-    <t>Transferencia de conocimiento y de capacidades técnicas y tecnológicas entre administraciónes municipales, para garantizar la continua operación del sistema de información geográfico local.</t>
-  </si>
-  <si>
-    <t>Manuales de procedimientos actualizados.
-Manuales técnicos de operación del sistema de información.</t>
-  </si>
-  <si>
-    <t>Personal capacitado en ordenamiento territorial y en sistemas de información geográfica.</t>
-  </si>
-  <si>
-    <t>Optimización de procedimientos.
-Actualización permanente de sistemas de información.
-Mayor capacidad técnica.</t>
-  </si>
-  <si>
     <t>Integrar las acciones territoriales de desarrollo y ocupación del territorio, contenidas en los Plan de Desarrollo y el Plan de Ordenamiento Municipal.</t>
-  </si>
-  <si>
-    <t>Integración de componente social, económica y ambiental con el componente territorial.
-Indicadores combinados de desarrollo y ordenamiento territorial.
-Continuidad en la reserva de recursos financieros destinados a los sistemas de información municipal.</t>
-  </si>
-  <si>
-    <t>Seguimiento y evaluación continua de la ejecución del Plan de Ordenamiento Territorial - POT, con integración de planes parciales, actuaciones urbanísticas, unidades de planeamiento, obras de urbanismo y otros instrumentos.</t>
   </si>
   <si>
     <t>Registro detallado de la ejecución del POT.
@@ -117,22 +81,7 @@
 Generación de tableros de monitoreo, control y seguimiento. </t>
   </si>
   <si>
-    <t>Integración de trámites municipales al sistema de información geográfico municipal (conceptos de uso, licencias, permisos, publicidad exterior visual, nomenclatura y demás relacionados).
-Por ejemplo, para identificar espacios públicos concesionados, localización de vallas y tableros, licencias (activas, por expirar, expiradas).</t>
-  </si>
-  <si>
     <t>Monitoreo y seguimiento de las dinámicas poblacionales territoriales, con representación geográfica y evaluación de sus efectos sobre el territorio.</t>
-  </si>
-  <si>
-    <t>Infraestructura tecnológica local para la puesta en marcha o el fortalecimiento del sistema de información geográfica municipal SIG (servidores, redes, equipos de cómputo y monitoreo, licencias de software).</t>
-  </si>
-  <si>
-    <t>Fortalecimiento de capacidades técnicas institucionales.
-Soporte digital del expediente urbano municipal  de ordenamiento territorial, conformado por documentos, planos e información georreferenciada territorial y urbana. Artículo 112, Ley 388 de 1997.</t>
-  </si>
-  <si>
-    <t>Información geo-espacial actualizada, a escala adecuada y con cubrimiento sobre el territorio, para la revisión y ajustes del Plan de Ordenamiento Territorial - POT.
-Por ejemplo, para el mapeo de la dinámica fluvial de un río a través del tiempo a escala 1:1000.</t>
   </si>
   <si>
     <t>Integración de sistemas de información regional para el acoplamiento del ordenamiento intermunicipal, departamental y los sistemas de gestión del riesgo.</t>
@@ -142,6 +91,56 @@
 Diseño integrado de infraestructura local y regional.
 Priorización de obras de recuperación y mitigación.
 Relocalización de asentamientos humanos ubicados en zonas de alto riesgo.</t>
+  </si>
+  <si>
+    <t>Infraestructura tecnológica local para la puesta en marcha o el fortalecimiento del sistema de información geográfica municipal SIG (servidores, redes, equipos de cómputo y monitoreo, licencias de software) y recurso humano capacitado técnicamente.</t>
+  </si>
+  <si>
+    <t>Fortalecimiento de capacidades técnicas institucionales.
+Soporte digital del expediente urbano municipal  de ordenamiento territorial, conformado por documentos, planos e información georreferenciada territorial y urbana. Artículo 112, Ley 388 de 1997.
+Optimización de procedimientos.
+Actualización permanente de sistemas de información.
+Mayor capacidad técnica.</t>
+  </si>
+  <si>
+    <t>Transferencia de conocimiento y de capacidades técnicas y tecnológicas entre administraciones municipales, para garantizar la continua operación del sistema de información geográfico local.</t>
+  </si>
+  <si>
+    <t>Guías y manuales de procedimientos actualizados.
+Manuales técnicos de operación del sistema de información.
+Diccionario de datos con información geo-espacial descriptiva.
+Capacitación técnica.</t>
+  </si>
+  <si>
+    <t>Información geo-espacial actualizada, a escala adecuada y con cubrimiento sobre el territorio, para la revisión y ajustes del Plan de Ordenamiento Territorial - POT.
+Por ejemplo, para el mapeo de la dinámica fluvial de un río a través del tiempo, a escala 1:1000.</t>
+  </si>
+  <si>
+    <t>Información catastral detallada y actualizada.
+Definición de la estructura ecológica principal, a partir de zonas correctamente delimitadas.
+Catastros de redes de servicios públicos con delimitación actualizada del perímetro de servicios públicos.</t>
+  </si>
+  <si>
+    <t>Seguimiento y evaluación continua de la ejecución del Plan en Ordenamiento Territorial - POT, con integración de planes parciales, actuaciones urbanísticas, unidades de planeamiento, obras de urbanismo y demás instrumentos.</t>
+  </si>
+  <si>
+    <t>Integración de trámites municipales al sistema de información geográfico municipal (conceptos de uso, licencias, permisos, publicidad exterior visual, nomenclatura y demás relacionados).
+Por ejemplo, para identificar espacios públicos concesionados, localización de vallas y monitoreo de licencias (en trámite, activas, por expirar, expiradas).</t>
+  </si>
+  <si>
+    <t>Actualización y despliegue permanente del sistema de indicadores territoriales, evaluando la gestión y actuaciones realizadas sobre el territorio.
+Por ejemplo, para monitorear la evolución temporal y espacial del índice de espacio público efectivo - EPE por habitante.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rendición de cuentas con soportes documentados (reportes técnicos, cartografía dinámica).
+Soporte para la justificación de modificación y ajuste a Planes de Ordenamiento Territorial.
+Fomentar la participación comunitaria.
+</t>
+  </si>
+  <si>
+    <t>Integración de componente social, económico y ambiental, con el componente territorial.
+Indicadores combinados de desarrollo y ordenamiento territorial.
+Reserva de recursos financieros destinados a los sistemas de información municipal.</t>
   </si>
 </sst>
 </file>
@@ -554,11 +553,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9EEE9CF-F9F4-4263-A277-225520030D8B}">
-  <dimension ref="B2:E13"/>
+  <dimension ref="B2:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -581,15 +580,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="66" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:5" ht="115.5" x14ac:dyDescent="0.45">
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="99" x14ac:dyDescent="0.45">
@@ -597,10 +596,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="66" x14ac:dyDescent="0.45">
@@ -608,10 +607,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="82.5" x14ac:dyDescent="0.45">
@@ -619,10 +618,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="66" x14ac:dyDescent="0.45">
@@ -630,10 +629,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>4</v>
@@ -644,10 +643,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="66" x14ac:dyDescent="0.45">
@@ -655,21 +654,21 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="66" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="99" x14ac:dyDescent="0.45">
       <c r="B10" s="2">
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="82.5" x14ac:dyDescent="0.45">
@@ -677,35 +676,24 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="49.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:5" ht="66" x14ac:dyDescent="0.45">
       <c r="B12" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="49.5" x14ac:dyDescent="0.45">
-      <c r="B13" s="2">
-        <v>11</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/file/temp/R.SIGE_RetosOportunidades.xlsx
+++ b/file/temp/R.SIGE_RetosOportunidades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\file\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77616F0-2E69-4D9F-A951-55889BE2C869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CBA7139-1E0F-4662-AFE1-FED1E4E2266F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{BD60A6CF-5FAF-4E61-844B-3C3B2CF454A5}"/>
   </bookViews>
@@ -56,11 +56,6 @@
     <t>Integrar las acciones territoriales de desarrollo y ocupación del territorio, contenidas en los Plan de Desarrollo y el Plan de Ordenamiento Municipal.</t>
   </si>
   <si>
-    <t>Registro detallado de la ejecución del POT.
-Conocimiento detallado del territorio y su infraestructura.
-Toma de decisiones territoriales basadas en información técnica.</t>
-  </si>
-  <si>
     <t>Modelo único local de datos geo-espaciales.
 Diccionario de datos integrado.
 Catastro actualizado de redes.
@@ -81,19 +76,7 @@
 Generación de tableros de monitoreo, control y seguimiento. </t>
   </si>
   <si>
-    <t>Monitoreo y seguimiento de las dinámicas poblacionales territoriales, con representación geográfica y evaluación de sus efectos sobre el territorio.</t>
-  </si>
-  <si>
     <t>Integración de sistemas de información regional para el acoplamiento del ordenamiento intermunicipal, departamental y los sistemas de gestión del riesgo.</t>
-  </si>
-  <si>
-    <t>Seguimiento de las actuaciones realizadas sobre todo el territorio.
-Diseño integrado de infraestructura local y regional.
-Priorización de obras de recuperación y mitigación.
-Relocalización de asentamientos humanos ubicados en zonas de alto riesgo.</t>
-  </si>
-  <si>
-    <t>Infraestructura tecnológica local para la puesta en marcha o el fortalecimiento del sistema de información geográfica municipal SIG (servidores, redes, equipos de cómputo y monitoreo, licencias de software) y recurso humano capacitado técnicamente.</t>
   </si>
   <si>
     <t>Fortalecimiento de capacidades técnicas institucionales.
@@ -116,14 +99,6 @@
 Por ejemplo, para el mapeo de la dinámica fluvial de un río a través del tiempo, a escala 1:1000.</t>
   </si>
   <si>
-    <t>Información catastral detallada y actualizada.
-Definición de la estructura ecológica principal, a partir de zonas correctamente delimitadas.
-Catastros de redes de servicios públicos con delimitación actualizada del perímetro de servicios públicos.</t>
-  </si>
-  <si>
-    <t>Seguimiento y evaluación continua de la ejecución del Plan en Ordenamiento Territorial - POT, con integración de planes parciales, actuaciones urbanísticas, unidades de planeamiento, obras de urbanismo y demás instrumentos.</t>
-  </si>
-  <si>
     <t>Integración de trámites municipales al sistema de información geográfico municipal (conceptos de uso, licencias, permisos, publicidad exterior visual, nomenclatura y demás relacionados).
 Por ejemplo, para identificar espacios públicos concesionados, localización de vallas y monitoreo de licencias (en trámite, activas, por expirar, expiradas).</t>
   </si>
@@ -141,6 +116,32 @@
     <t>Integración de componente social, económico y ambiental, con el componente territorial.
 Indicadores combinados de desarrollo y ordenamiento territorial.
 Reserva de recursos financieros destinados a los sistemas de información municipal.</t>
+  </si>
+  <si>
+    <t>Infraestructura tecnológica local para la puesta en marcha o para el fortalecimiento del sistema de información geográfica municipal SIG (servidores, redes, equipos, licencias, almacenamiento en la nube) y recurso humano capacitado técnicamente.</t>
+  </si>
+  <si>
+    <t>Información catastral detallada y actualizada.
+Definición de la estructura ecológica principal, a partir de zonas correctamente delimitadas.
+Catastros de redes de servicios públicos con delimitación actualizada del perímetro sanitario o de servicios públicos.</t>
+  </si>
+  <si>
+    <t>Monitoreo y seguimiento de las dinámicas poblacionales territoriales y regionales, con representación geográfica y evaluación de sus efectos sobre el territorio.</t>
+  </si>
+  <si>
+    <t>Seguimiento a las actuaciones realizadas sobre todo el territorio y la región.
+Diseño integrado de infraestructura local y regional.
+Priorización de obras de recuperación y mitigación.
+Relocalización de asentamientos humanos ubicados en zonas de alto riesgo.</t>
+  </si>
+  <si>
+    <t>Seguimiento y evaluación continua en la ejecución del Plan de Ordenamiento Territorial - POT, con integración de planes parciales, actuaciones urbanísticas, unidades de planeamiento, demás instrumentos y obras de urbanismo.</t>
+  </si>
+  <si>
+    <t>Registro detallado de la ejecución del POT.
+Registro detallado de obras de urbanismo, instalación y rehabilitación de redes e infraestructura.
+Conocimiento detallado del territorio y su infraestructura.
+Toma de decisiones territoriales basadas en información técnica.</t>
   </si>
 </sst>
 </file>
@@ -556,8 +557,8 @@
   <dimension ref="B2:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -585,10 +586,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="99" x14ac:dyDescent="0.45">
@@ -596,21 +597,21 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="66" x14ac:dyDescent="0.45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="82.5" x14ac:dyDescent="0.45">
       <c r="B5" s="2">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="82.5" x14ac:dyDescent="0.45">
@@ -618,10 +619,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="66" x14ac:dyDescent="0.45">
@@ -629,10 +630,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>4</v>
@@ -643,10 +644,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="66" x14ac:dyDescent="0.45">
@@ -654,10 +655,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="99" x14ac:dyDescent="0.45">
@@ -665,10 +666,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="82.5" x14ac:dyDescent="0.45">
@@ -679,7 +680,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>0</v>
@@ -690,10 +691,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/file/temp/R.SIGE_RetosOportunidades.xlsx
+++ b/file/temp/R.SIGE_RetosOportunidades.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28713"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\file\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.SIGE\file\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CBA7139-1E0F-4662-AFE1-FED1E4E2266F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAB0187-33F7-4B5C-B325-BEB672D7A995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{BD60A6CF-5FAF-4E61-844B-3C3B2CF454A5}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{BD60A6CF-5FAF-4E61-844B-3C3B2CF454A5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="20240712" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -557,8 +557,8 @@
   <dimension ref="B2:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
